--- a/files/IS201/Athletes.xlsx
+++ b/files/IS201/Athletes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandt\OneDrive\Professional\BYU\IS201\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandt\Source\brandtredd.github.io\files\IS201\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{477DD560-2DD5-498D-AD38-87A4FEE492BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB7764E-DE36-4657-B8F5-4945166017DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60120" yWindow="4725" windowWidth="19440" windowHeight="15000" xr2:uid="{7EB24C62-BBC4-4A60-9D11-0A4CAA95D8AA}"/>
+    <workbookView xWindow="40920" yWindow="4950" windowWidth="19440" windowHeight="15000" xr2:uid="{7EB24C62-BBC4-4A60-9D11-0A4CAA95D8AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t xml:space="preserve">Zimmerman, George; 1952-05-17; M; Golf </t>
-  </si>
-  <si>
     <t>Smith, Hootie; 1964-04-23; male; Tennis</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Buckminster, Belinda; 1997-08-23; female; archery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lufthansa, George; 1952-05-17; M; Golf </t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -458,102 +458,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
